--- a/01_项目管理/02_光与朽项目/07_发行追踪/游戏发行追踪.xlsx
+++ b/01_项目管理/02_光与朽项目/07_发行追踪/游戏发行追踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24443" windowHeight="13224"/>
+    <workbookView windowWidth="20328" windowHeight="10728"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>公司名称</t>
   </si>
@@ -130,6 +130,9 @@
     <t>沅姗</t>
   </si>
   <si>
+    <t>结论：不推荐。表现力：怪物的种类丰富单动作单一，射线也缺乏更直观感受的变化。上手：肉鸽词条稀有度的辨识效果良好，阅读量小，玩家抉择和上手的压力小。核心体验：控制射线击败怪物，升级后可选择肉鸽词条进行强化，能对射线本身产生较大影响。成长追求：暂无。玩法：目前仅有主线推关一种玩法。付费：暂无。 总结：该产品为肉鸽塔防类，战斗中玩家需要保持极高的专注度，产品当前版本并不支持自动战斗，即使用手操作也存在一定的数值压力，玩家手操的付出缺乏对应的正反馈机制，虽然目前怪物的机制多元但词条之间缺乏联动性，再加上单场战斗时间过长会导致玩家出现厌恶感，故综上所述该产品不推荐。</t>
+  </si>
+  <si>
     <t>广州趣城网络科技有限公司</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>周畅</t>
   </si>
   <si>
+    <t>同事</t>
+  </si>
+  <si>
     <t>万忆</t>
   </si>
   <si>
@@ -196,10 +202,19 @@
     <t>需要一直操作，一局时间太长。分裂射线角度大，距离短没什么用，分裂射线的伤害低。增加射线宽度没感觉。技能三选一没有自己选择的感受，完全像是随机的。弹球怪会走到塔的底部，玩家打不到的地方。一直重复操作，而且只能控制方向就感觉时间长。选择了增加宽度的技能，但是选择了聚能透镜，激光又变细了。操作的时候手指把中间挡住了，看不到太近的怪。还有反射技能，以为是可以在怪身上反射，结果是在两边墙上上反射。而且无人机空投连续两次选中间都是负面效果一直降低输出，搞的不想玩这一局了。无人机空投效果值需要调，随了一个增益+1%暴击，然后随机了一个降低5%的伤害，感觉亏大了。还有基础伤害太低，三选一的技能选了好几次增加伤害都没有感觉，就10几点伤害，增加到50%，也就是变为20点伤害。最重要的目前就是，游戏内容深度不够（需要一周的内容深度）。技能流派对于通关的选择没区别，建议后面增加关卡，针对特定的流派设计特定的关卡通关，（这样流派才有意义）。</t>
   </si>
   <si>
+    <t>亲戚</t>
+  </si>
+  <si>
     <t>阳光</t>
   </si>
   <si>
     <t>全屏点哪里？射击哪里？这个只能在下面控制？</t>
+  </si>
+  <si>
+    <t>林玉胜</t>
+  </si>
+  <si>
+    <t>感觉持续的爽感有点不太够，升级后激光的表现比较单一，怪物的形象变化也没有很大。比如宽度升级了看不太出来也感觉不太出来。分叉技能感觉也比较鸡肋，有种点了就掉进坑里的感觉，是不是可以借鉴一下开头先选几种主要天赋，然后是分支和属性里选。而且最好有更快速的爽感，因为你这个相当于单个棋子的塔防。还是不能升级只有天赋的塔防。你这个塔基本没什么表现。可以做点梗，哪怕是热点新闻的形象也好点。反正美术上感觉如果没啥变化，玩法游戏比较单一的射击游戏，可玩行目前可能还不太够啊。</t>
   </si>
 </sst>
 </file>
@@ -821,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +847,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1263,7 +1275,6 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7"/>
       <c r="D7">
         <v>1.23</v>
       </c>
@@ -1289,7 +1300,6 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9"/>
       <c r="D9">
         <v>1.23</v>
       </c>
@@ -1305,24 +1315,26 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="72" spans="1:6">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>1.23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -1330,46 +1342,45 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" s="4">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -1378,70 +1389,102 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.23</v>
       </c>
       <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:6">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" ht="100.8" spans="1:6">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.23</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.23</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="57.6" spans="1:6">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
